--- a/Compass.Wpf/bin/Debug/net6.0-windows/TemplateDoc/JobCard.xlsx
+++ b/Compass.Wpf/bin/Debug/net6.0-windows/TemplateDoc/JobCard.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\TemplateDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6686BBEE-03E4-4250-AACD-B8140C79EFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4ACF1B-BE37-4A63-8DA9-08114213AFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="1200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">JobCard!$A$1:$H$264</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">JobCard!$A$1:$H$274</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -213,9 +213,6 @@
 更正</t>
   </si>
   <si>
-    <t>Cutting Inspection (Laser &amp; punch breaker)下料检验 (激光切割/数控冲操作员) /Inspected Date 检查日期:</t>
-  </si>
-  <si>
     <t>first part check 首件尺寸检验</t>
   </si>
   <si>
@@ -232,10 +229,6 @@
 零件没有毛刺和尖锐突出</t>
   </si>
   <si>
-    <t>Bending Inspection (bender) 折弯检验 (折弯操作员)
- /Inspected Date 检查日期:</t>
-  </si>
-  <si>
     <t>drawing direction correct 零件拉丝方向正确</t>
   </si>
   <si>
@@ -258,10 +251,6 @@
     <t>All parts are included 已包含所有 零件</t>
   </si>
   <si>
-    <t>Welding Inspection (welder) 焊接检验 (焊工) 
-/Inspected Date 检查日期:</t>
-  </si>
-  <si>
     <t>Exhaust Beam assembled dimensions correct 
 排风口主粱结构装配尺寸正确</t>
   </si>
@@ -304,10 +293,6 @@
     <t>Process Inspection 2 过程检验2</t>
   </si>
   <si>
-    <t>Polishing Inspection (polisher) 磨光检验 (磨光操作员)
- /Inspected Date 检查日期:</t>
-  </si>
-  <si>
     <t>Exhaust Beam blend no more than 12mm 
 排风口主粱抛光区域控制在12mm之内</t>
   </si>
@@ -317,10 +302,6 @@
   </si>
   <si>
     <t>side panel blend no more than 12mm 侧板抛光区域控制在12mm之内</t>
-  </si>
-  <si>
-    <t>Assembly Inspection 组装检验 (team leader) 
-/Inspected Date 检查日期:</t>
   </si>
   <si>
     <t>Overall Length 总长度</t>
@@ -665,6 +646,27 @@
   </si>
   <si>
     <t>Product Description 产品描述</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welding Inspection (welder) 焊接检验 (焊工)/Inspected Date 检查日期:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bending Inspection (bender) 折弯检验 (折弯操作员 /Inspected Date 检查日期:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly Inspection 组装检验 (team leader)/Inspected Date 检查日期:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polishing Inspection (polisher) 磨光检验 (磨光操作员) /Inspected Date 检查日期:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutting Inspection (Laser &amp; punch breaker)下料检验 (激光切割/数控冲操作员)
+ /Inspected Date 检查日期:</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1506,7 +1508,20 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -1517,7 +1532,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -1688,23 +1703,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1914,29 +1932,29 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2027,9 +2045,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2097,13 +2112,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>195140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2139,13 +2154,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>193552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2181,13 +2196,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>187202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2223,13 +2238,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>193553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2265,13 +2280,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>191965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2307,13 +2322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>191965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2614,10 +2629,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A246" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2636,94 +2651,94 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="46"/>
       <c r="B1" s="46"/>
-      <c r="C1" s="130" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="C1" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="147" t="s">
+      <c r="A3" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="147" t="s">
+      <c r="A4" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="147" t="s">
+      <c r="A5" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="125" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="147" t="s">
+      <c r="A6" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
+      <c r="A7" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
@@ -2752,24 +2767,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="148"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="126"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="150"/>
+      <c r="H9" s="151"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
@@ -2781,50 +2796,50 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="126"/>
+      <c r="D10" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="127"/>
       <c r="F10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="152"/>
+      <c r="H10" s="153"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="126"/>
+      <c r="D11" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="127"/>
       <c r="F11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="146">
         <v>43826</v>
       </c>
-      <c r="H11" s="146"/>
+      <c r="H11" s="147"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="126"/>
+      <c r="D12" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="127"/>
       <c r="F12" s="25" t="s">
         <v>13</v>
       </c>
@@ -2845,10 +2860,10 @@
       <c r="C13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="126"/>
+      <c r="D13" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="127"/>
       <c r="F13" s="25" t="s">
         <v>13</v>
       </c>
@@ -2869,10 +2884,10 @@
       <c r="C14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="126"/>
+      <c r="D14" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="127"/>
       <c r="F14" s="25" t="s">
         <v>13</v>
       </c>
@@ -2893,10 +2908,10 @@
       <c r="C15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="126"/>
+      <c r="D15" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="127"/>
       <c r="F15" s="25" t="s">
         <v>13</v>
       </c>
@@ -2934,10 +2949,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="103"/>
+      <c r="A17" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="104"/>
       <c r="C17" s="49" t="s">
         <v>28</v>
       </c>
@@ -2986,1635 +3001,1599 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
+      <c r="A19" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="136"/>
+      <c r="C19" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
+      <c r="A21" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="137"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="141"/>
+      <c r="A25" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="141"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="141"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="142"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="141"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="141"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="141"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="141"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="141"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="143"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="132" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="142"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="142"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="142"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="142"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="142"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="142"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="144"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="26" t="s">
+      <c r="B43" s="127"/>
+      <c r="C43" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="127" t="s">
+      <c r="D43" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="44" t="s">
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H43" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="125" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="126"/>
-      <c r="C38" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="128"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="126"/>
-      <c r="C39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="128"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="126"/>
-      <c r="C40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="128"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="126"/>
-      <c r="C41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="128"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="126"/>
-      <c r="C42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="128"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="126"/>
-      <c r="C43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="128"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="126"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="128"/>
-      <c r="F44" s="129"/>
+      <c r="D44" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
       <c r="G44" s="45"/>
       <c r="H44" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="126"/>
+      <c r="A45" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="127"/>
       <c r="C45" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="128"/>
-      <c r="F45" s="129"/>
+      <c r="D45" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="129"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="45"/>
       <c r="H45" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="126"/>
+      <c r="A46" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="127"/>
       <c r="C46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="128"/>
-      <c r="F46" s="129"/>
+      <c r="D46" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
       <c r="G46" s="45"/>
       <c r="H46" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="126"/>
+      <c r="A47" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="127"/>
       <c r="C47" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
+      <c r="D47" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
       <c r="G47" s="45"/>
       <c r="H47" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="126"/>
+      <c r="A48" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="127"/>
       <c r="C48" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="128"/>
-      <c r="F48" s="129"/>
+      <c r="D48" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="45"/>
       <c r="H48" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="55"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="130" t="s">
+      <c r="A49" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="127"/>
+      <c r="C49" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="127"/>
+      <c r="C50" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="127"/>
+      <c r="C51" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="129"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="127"/>
+      <c r="C52" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="129"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="127"/>
+      <c r="C53" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="129"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="127"/>
+      <c r="C54" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="129"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="55"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="55"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="70" t="s">
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="101" t="str">
+      <c r="B58" s="72"/>
+      <c r="C58" s="102" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="104"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="70" t="s">
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="105"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="101" t="str">
+      <c r="B59" s="72"/>
+      <c r="C59" s="102" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="104"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="70" t="s">
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="105"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="101" t="str">
+      <c r="B60" s="72"/>
+      <c r="C60" s="102" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="119" t="s">
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="105"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="120"/>
-      <c r="C55" s="121" t="str">
+      <c r="B61" s="121"/>
+      <c r="C61" s="122" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="124"/>
-    </row>
-    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A56" s="110"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="48" t="s">
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="125"/>
+    </row>
+    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="G62" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H62" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="118" t="s">
+    <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="113" t="s">
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="35"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="113" t="s">
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="35"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="113" t="s">
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="35"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="113" t="s">
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="35"/>
-    </row>
-    <row r="62" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="113" t="s">
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="35"/>
-    </row>
-    <row r="63" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="118" t="s">
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="34"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="113" t="s">
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="35"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="113" t="s">
+      <c r="B72" s="114"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="35"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="113" t="s">
+      <c r="B75" s="114"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="35"/>
+    </row>
+    <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="35"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="113" t="s">
+      <c r="B76" s="119"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="34"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="114"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="35"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="35"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="35"/>
-    </row>
-    <row r="69" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="113" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="35"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="35"/>
-    </row>
-    <row r="70" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="118" t="s">
+      <c r="B79" s="114"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="35"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="118"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="34"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="113"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="35"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="35"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="113" t="s">
+      <c r="B80" s="114"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="35"/>
+    </row>
+    <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="119" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="35"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="113" t="s">
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="35"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="35"/>
-    </row>
-    <row r="75" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="118" t="s">
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="34"/>
-    </row>
-    <row r="76" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="113" t="s">
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="113"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="35"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="113" t="s">
+      <c r="B85" s="114"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="35"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="35"/>
-    </row>
-    <row r="78" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="113" t="s">
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="35"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="113"/>
-      <c r="F78" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="35"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="113" t="s">
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="35"/>
+    </row>
+    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="35"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="113" t="s">
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="35"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="113"/>
-      <c r="F80" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="35"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="113" t="s">
+      <c r="B89" s="114"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="35"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="113"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="35"/>
-    </row>
-    <row r="82" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="113" t="s">
+      <c r="B90" s="114"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="35"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="35"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="113" t="s">
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="113"/>
-      <c r="F83" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="35"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="113" t="s">
+      <c r="B92" s="114"/>
+      <c r="C92" s="114"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="35"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="113" t="s">
+      <c r="B93" s="114"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="113"/>
-      <c r="C85" s="113"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="35"/>
-    </row>
-    <row r="86" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="113"/>
-      <c r="C86" s="113"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="113"/>
-      <c r="F86" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="35"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="113"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="35"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="116"/>
-      <c r="E89" s="116"/>
-      <c r="F89" s="116"/>
-      <c r="G89" s="116"/>
-      <c r="H89" s="116"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="101" t="str">
-        <f>$C$3</f>
-        <v>FSO190786</v>
-      </c>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="101" t="str">
-        <f>$C$4</f>
-        <v>Jeju Dream Tower  III</v>
-      </c>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="104"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="71"/>
-      <c r="C93" s="101" t="str">
-        <f>$C$5</f>
-        <v>71.6 M1</v>
-      </c>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="103"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="104"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="121" t="str">
-        <f>$C$6</f>
-        <v>KVI</v>
-      </c>
-      <c r="D94" s="122"/>
-      <c r="E94" s="122"/>
-      <c r="F94" s="123"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="124"/>
-    </row>
-    <row r="95" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="110"/>
-      <c r="B95" s="110"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="110"/>
-      <c r="F95" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H95" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="118"/>
+      <c r="D95" s="117"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+      <c r="G95" s="117"/>
+      <c r="H95" s="117"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
       <c r="C96" s="118"/>
       <c r="D96" s="118"/>
       <c r="E96" s="118"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="34"/>
-    </row>
-    <row r="97" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="113" t="s">
+      <c r="F96" s="118"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="118"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="72"/>
+      <c r="C97" s="102" t="str">
+        <f>$C$3</f>
+        <v>FSO190786</v>
+      </c>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="104"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="105"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="72"/>
+      <c r="C98" s="102" t="str">
+        <f>$C$4</f>
+        <v>Jeju Dream Tower  III</v>
+      </c>
+      <c r="D98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="104"/>
+      <c r="H98" s="105"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="72"/>
+      <c r="C99" s="102" t="str">
+        <f>$C$5</f>
+        <v>71.6 M1</v>
+      </c>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="104"/>
+      <c r="H99" s="105"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="121"/>
+      <c r="C100" s="122" t="str">
+        <f>$C$6</f>
+        <v>KVI</v>
+      </c>
+      <c r="D100" s="123"/>
+      <c r="E100" s="123"/>
+      <c r="F100" s="124"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="125"/>
+    </row>
+    <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A101" s="111"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G101" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="119" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="34"/>
+    </row>
+    <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="114"/>
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="114"/>
+      <c r="F103" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="35"/>
+    </row>
+    <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="114"/>
+      <c r="C104" s="114"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="35"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="114"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="114"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="35"/>
+    </row>
+    <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" s="119"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="119"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="34"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="114"/>
+      <c r="C107" s="114"/>
+      <c r="D107" s="114"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="35"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="113"/>
-      <c r="C97" s="113"/>
-      <c r="D97" s="113"/>
-      <c r="E97" s="113"/>
-      <c r="F97" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="35"/>
-    </row>
-    <row r="98" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="113" t="s">
+      <c r="B108" s="114"/>
+      <c r="C108" s="114"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="35"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="113"/>
-      <c r="C98" s="113"/>
-      <c r="D98" s="113"/>
-      <c r="E98" s="113"/>
-      <c r="F98" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="35"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="113" t="s">
+      <c r="B109" s="114"/>
+      <c r="C109" s="114"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="114"/>
+      <c r="F109" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="35"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="113"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="113"/>
-      <c r="F99" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="35"/>
-    </row>
-    <row r="100" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="118" t="s">
+      <c r="B110" s="114"/>
+      <c r="C110" s="114"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="35"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="118"/>
-      <c r="C100" s="118"/>
-      <c r="D100" s="118"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="34"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="113" t="s">
+      <c r="B111" s="114"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="35"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="35"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="113" t="s">
+      <c r="B112" s="114"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="35"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="35"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="113" t="s">
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="35"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="113"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="35"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="113" t="s">
+      <c r="B114" s="114"/>
+      <c r="C114" s="114"/>
+      <c r="D114" s="114"/>
+      <c r="E114" s="114"/>
+      <c r="F114" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="35"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="113"/>
-      <c r="C104" s="113"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="113"/>
-      <c r="F104" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="35"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="113" t="s">
+      <c r="B115" s="114"/>
+      <c r="C115" s="114"/>
+      <c r="D115" s="114"/>
+      <c r="E115" s="114"/>
+      <c r="F115" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="35"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="113"/>
-      <c r="C105" s="113"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="113"/>
-      <c r="F105" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="35"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="113" t="s">
+      <c r="B116" s="114"/>
+      <c r="C116" s="114"/>
+      <c r="D116" s="114"/>
+      <c r="E116" s="114"/>
+      <c r="F116" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="35"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="113"/>
-      <c r="C106" s="113"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="113"/>
-      <c r="F106" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="35"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="113" t="s">
+      <c r="B117" s="114"/>
+      <c r="C117" s="114"/>
+      <c r="D117" s="114"/>
+      <c r="E117" s="114"/>
+      <c r="F117" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="35"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="113"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="113"/>
-      <c r="E107" s="113"/>
-      <c r="F107" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="35"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="113" t="s">
+      <c r="B118" s="114"/>
+      <c r="C118" s="114"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="35"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="113"/>
-      <c r="E108" s="113"/>
-      <c r="F108" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="35"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="113" t="s">
+      <c r="B119" s="114"/>
+      <c r="C119" s="114"/>
+      <c r="D119" s="114"/>
+      <c r="E119" s="114"/>
+      <c r="F119" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="35"/>
+    </row>
+    <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="113"/>
-      <c r="C109" s="113"/>
-      <c r="D109" s="113"/>
-      <c r="E109" s="113"/>
-      <c r="F109" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="35"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="113" t="s">
+      <c r="B120" s="114"/>
+      <c r="C120" s="114"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="35"/>
+    </row>
+    <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="113"/>
-      <c r="E110" s="113"/>
-      <c r="F110" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="35"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="113" t="s">
+      <c r="B121" s="114"/>
+      <c r="C121" s="114"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="35"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="113"/>
-      <c r="C111" s="113"/>
-      <c r="D111" s="113"/>
-      <c r="E111" s="113"/>
-      <c r="F111" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="35"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="113" t="s">
+      <c r="B122" s="114"/>
+      <c r="C122" s="114"/>
+      <c r="D122" s="114"/>
+      <c r="E122" s="114"/>
+      <c r="F122" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="35"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="113"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="113"/>
-      <c r="F112" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="35"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="113" t="s">
+      <c r="B123" s="114"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="35"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="35"/>
-    </row>
-    <row r="114" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="113" t="s">
+      <c r="B124" s="114"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="35"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="35"/>
-    </row>
-    <row r="115" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="113" t="s">
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="35"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
-      <c r="F115" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="35"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="113" t="s">
+      <c r="B126" s="114"/>
+      <c r="C126" s="114"/>
+      <c r="D126" s="114"/>
+      <c r="E126" s="114"/>
+      <c r="F126" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="35"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
-      <c r="F116" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="35"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="113" t="s">
+      <c r="B127" s="114"/>
+      <c r="C127" s="114"/>
+      <c r="D127" s="114"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="35"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="113"/>
-      <c r="C117" s="113"/>
-      <c r="D117" s="113"/>
-      <c r="E117" s="113"/>
-      <c r="F117" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="35"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="113"/>
-      <c r="C118" s="113"/>
-      <c r="D118" s="113"/>
-      <c r="E118" s="113"/>
-      <c r="F118" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="35"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119" s="113"/>
-      <c r="C119" s="113"/>
-      <c r="D119" s="113"/>
-      <c r="E119" s="113"/>
-      <c r="F119" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="35"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="B120" s="113"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="35"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="B121" s="113"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="35"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="B122" s="113"/>
-      <c r="C122" s="113"/>
-      <c r="D122" s="113"/>
-      <c r="E122" s="113"/>
-      <c r="F122" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="35"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B123" s="113"/>
-      <c r="C123" s="113"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="113"/>
-      <c r="F123" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="35"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
-      <c r="E124" s="113"/>
-      <c r="F124" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="35"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="35"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B126" s="113"/>
-      <c r="C126" s="113"/>
-      <c r="D126" s="113"/>
-      <c r="E126" s="113"/>
-      <c r="F126" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="35"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B127" s="113"/>
-      <c r="C127" s="113"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="113"/>
-      <c r="F127" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="35"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B128" s="113"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
-      <c r="E128" s="113"/>
+      <c r="B128" s="114"/>
+      <c r="C128" s="114"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="114"/>
       <c r="F128" s="35" t="s">
         <v>13</v>
       </c>
@@ -4625,1342 +4604,1378 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="114" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B129" s="114"/>
-      <c r="C129" s="115"/>
-      <c r="D129" s="115"/>
-      <c r="E129" s="115"/>
-      <c r="F129" s="115"/>
-      <c r="G129" s="115"/>
-      <c r="H129" s="115"/>
+      <c r="C129" s="114"/>
+      <c r="D129" s="114"/>
+      <c r="E129" s="114"/>
+      <c r="F129" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="35"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="59"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="60"/>
-      <c r="H130" s="60"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="46"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="116" t="s">
-        <v>189</v>
-      </c>
-      <c r="D131" s="116"/>
-      <c r="E131" s="116"/>
-      <c r="F131" s="116"/>
-      <c r="G131" s="116"/>
-      <c r="H131" s="116"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="46"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="117"/>
-      <c r="D132" s="117"/>
-      <c r="E132" s="117"/>
-      <c r="F132" s="117"/>
-      <c r="G132" s="117"/>
-      <c r="H132" s="117"/>
+      <c r="A130" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="114"/>
+      <c r="C130" s="114"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="114"/>
+      <c r="F130" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="35"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="35"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="114"/>
+      <c r="C132" s="114"/>
+      <c r="D132" s="114"/>
+      <c r="E132" s="114"/>
+      <c r="F132" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="70" t="s">
+      <c r="A133" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="114"/>
+      <c r="C133" s="114"/>
+      <c r="D133" s="114"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="35"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="114"/>
+      <c r="C134" s="114"/>
+      <c r="D134" s="114"/>
+      <c r="E134" s="114"/>
+      <c r="F134" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="35"/>
+    </row>
+    <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="115"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="116"/>
+      <c r="G135" s="116"/>
+      <c r="H135" s="116"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="56"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="46"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="117"/>
+      <c r="E137" s="117"/>
+      <c r="F137" s="117"/>
+      <c r="G137" s="117"/>
+      <c r="H137" s="117"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="46"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="118"/>
+      <c r="D138" s="118"/>
+      <c r="E138" s="118"/>
+      <c r="F138" s="118"/>
+      <c r="G138" s="118"/>
+      <c r="H138" s="118"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="71"/>
-      <c r="C133" s="101" t="str">
+      <c r="B139" s="72"/>
+      <c r="C139" s="102" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D133" s="102"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="103"/>
-      <c r="G133" s="103"/>
-      <c r="H133" s="104"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="70" t="s">
+      <c r="D139" s="103"/>
+      <c r="E139" s="103"/>
+      <c r="F139" s="104"/>
+      <c r="G139" s="104"/>
+      <c r="H139" s="105"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="71"/>
-      <c r="C134" s="101" t="str">
+      <c r="B140" s="72"/>
+      <c r="C140" s="102" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D134" s="102"/>
-      <c r="E134" s="102"/>
-      <c r="F134" s="103"/>
-      <c r="G134" s="103"/>
-      <c r="H134" s="104"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="70" t="s">
+      <c r="D140" s="103"/>
+      <c r="E140" s="103"/>
+      <c r="F140" s="104"/>
+      <c r="G140" s="104"/>
+      <c r="H140" s="105"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="71"/>
-      <c r="C135" s="111"/>
-      <c r="D135" s="102"/>
-      <c r="E135" s="102"/>
-      <c r="F135" s="102"/>
-      <c r="G135" s="102"/>
-      <c r="H135" s="112"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="70" t="s">
+      <c r="B141" s="72"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="103"/>
+      <c r="E141" s="103"/>
+      <c r="F141" s="103"/>
+      <c r="G141" s="103"/>
+      <c r="H141" s="113"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="71"/>
-      <c r="C136" s="101" t="str">
+      <c r="B142" s="72"/>
+      <c r="C142" s="102" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D136" s="102"/>
-      <c r="E136" s="102"/>
-      <c r="F136" s="103"/>
-      <c r="G136" s="103"/>
-      <c r="H136" s="104"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="70" t="s">
+      <c r="D142" s="103"/>
+      <c r="E142" s="103"/>
+      <c r="F142" s="104"/>
+      <c r="G142" s="104"/>
+      <c r="H142" s="105"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B137" s="71"/>
-      <c r="C137" s="101" t="str">
+      <c r="B143" s="72"/>
+      <c r="C143" s="102" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D137" s="102"/>
-      <c r="E137" s="102"/>
-      <c r="F137" s="103"/>
-      <c r="G137" s="105"/>
-      <c r="H137" s="106"/>
-    </row>
-    <row r="138" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="107" t="s">
+      <c r="D143" s="103"/>
+      <c r="E143" s="103"/>
+      <c r="F143" s="104"/>
+      <c r="G143" s="106"/>
+      <c r="H143" s="107"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="109"/>
+      <c r="C144" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D144" s="110"/>
+      <c r="E144" s="110"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="111"/>
+    </row>
+    <row r="145" spans="1:8" s="38" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B145" s="99"/>
+      <c r="C145" s="99"/>
+      <c r="D145" s="99"/>
+      <c r="E145" s="100"/>
+      <c r="F145" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G145" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="H145" s="101"/>
+    </row>
+    <row r="146" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B138" s="108"/>
-      <c r="C138" s="107" t="s">
+      <c r="B146" s="87"/>
+      <c r="C146" s="87"/>
+      <c r="D146" s="87"/>
+      <c r="E146" s="88"/>
+      <c r="F146" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="D138" s="109"/>
-      <c r="E138" s="109"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="110"/>
-    </row>
-    <row r="139" spans="1:8" s="38" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="97" t="s">
+      <c r="H146" s="89"/>
+    </row>
+    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B139" s="98"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="98"/>
-      <c r="E139" s="99"/>
-      <c r="F139" s="37" t="s">
+      <c r="B147" s="87"/>
+      <c r="C147" s="87"/>
+      <c r="D147" s="87"/>
+      <c r="E147" s="88"/>
+      <c r="F147" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H147" s="89"/>
+    </row>
+    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="G139" s="100" t="s">
+      <c r="B148" s="87"/>
+      <c r="C148" s="87"/>
+      <c r="D148" s="87"/>
+      <c r="E148" s="88"/>
+      <c r="F148" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H148" s="89"/>
+    </row>
+    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="H139" s="100"/>
-    </row>
-    <row r="140" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="85" t="s">
+      <c r="B149" s="87"/>
+      <c r="C149" s="87"/>
+      <c r="D149" s="87"/>
+      <c r="E149" s="88"/>
+      <c r="F149" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H149" s="89"/>
+    </row>
+    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="B140" s="86"/>
-      <c r="C140" s="86"/>
-      <c r="D140" s="86"/>
-      <c r="E140" s="87"/>
-      <c r="F140" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="88" t="s">
+      <c r="B150" s="87"/>
+      <c r="C150" s="87"/>
+      <c r="D150" s="87"/>
+      <c r="E150" s="88"/>
+      <c r="F150" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H150" s="89"/>
+    </row>
+    <row r="151" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="88"/>
-    </row>
-    <row r="141" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="85" t="s">
+      <c r="B151" s="87"/>
+      <c r="C151" s="87"/>
+      <c r="D151" s="87"/>
+      <c r="E151" s="88"/>
+      <c r="F151" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H151" s="89"/>
+    </row>
+    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B141" s="86"/>
-      <c r="C141" s="86"/>
-      <c r="D141" s="86"/>
-      <c r="E141" s="87"/>
-      <c r="F141" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H141" s="88"/>
-    </row>
-    <row r="142" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="85" t="s">
+      <c r="B152" s="87"/>
+      <c r="C152" s="87"/>
+      <c r="D152" s="87"/>
+      <c r="E152" s="88"/>
+      <c r="F152" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H152" s="89"/>
+    </row>
+    <row r="153" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="87"/>
+      <c r="C153" s="87"/>
+      <c r="D153" s="87"/>
+      <c r="E153" s="88"/>
+      <c r="F153" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H153" s="89"/>
+    </row>
+    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="86"/>
-      <c r="C142" s="86"/>
-      <c r="D142" s="86"/>
-      <c r="E142" s="87"/>
-      <c r="F142" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H142" s="88"/>
-    </row>
-    <row r="143" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="85" t="s">
+      <c r="B154" s="87"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="87"/>
+      <c r="E154" s="88"/>
+      <c r="F154" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H154" s="89"/>
+    </row>
+    <row r="155" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B143" s="86"/>
-      <c r="C143" s="86"/>
-      <c r="D143" s="86"/>
-      <c r="E143" s="87"/>
-      <c r="F143" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H143" s="88"/>
-    </row>
-    <row r="144" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="85" t="s">
+      <c r="B155" s="87"/>
+      <c r="C155" s="87"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H155" s="89"/>
+    </row>
+    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="B144" s="86"/>
-      <c r="C144" s="86"/>
-      <c r="D144" s="86"/>
-      <c r="E144" s="87"/>
-      <c r="F144" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H144" s="88"/>
-    </row>
-    <row r="145" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="85" t="s">
+      <c r="B156" s="87"/>
+      <c r="C156" s="87"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H156" s="89"/>
+    </row>
+    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B145" s="86"/>
-      <c r="C145" s="86"/>
-      <c r="D145" s="86"/>
-      <c r="E145" s="87"/>
-      <c r="F145" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H145" s="88"/>
-    </row>
-    <row r="146" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="85" t="s">
+      <c r="B157" s="87"/>
+      <c r="C157" s="87"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H157" s="89"/>
+    </row>
+    <row r="158" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B146" s="86"/>
-      <c r="C146" s="86"/>
-      <c r="D146" s="86"/>
-      <c r="E146" s="87"/>
-      <c r="F146" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H146" s="88"/>
-    </row>
-    <row r="147" spans="1:8" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="B147" s="86"/>
-      <c r="C147" s="86"/>
-      <c r="D147" s="86"/>
-      <c r="E147" s="87"/>
-      <c r="F147" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H147" s="88"/>
-    </row>
-    <row r="148" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="85" t="s">
+      <c r="B158" s="87"/>
+      <c r="C158" s="87"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H158" s="89"/>
+    </row>
+    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="B148" s="86"/>
-      <c r="C148" s="86"/>
-      <c r="D148" s="86"/>
-      <c r="E148" s="87"/>
-      <c r="F148" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H148" s="88"/>
-    </row>
-    <row r="149" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="85" t="s">
+      <c r="B159" s="87"/>
+      <c r="C159" s="87"/>
+      <c r="D159" s="87"/>
+      <c r="E159" s="88"/>
+      <c r="F159" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H159" s="89"/>
+    </row>
+    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="86"/>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="87"/>
-      <c r="F149" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H149" s="88"/>
-    </row>
-    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="85" t="s">
+      <c r="B160" s="87"/>
+      <c r="C160" s="87"/>
+      <c r="D160" s="87"/>
+      <c r="E160" s="88"/>
+      <c r="F160" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H160" s="89"/>
+    </row>
+    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B150" s="86"/>
-      <c r="C150" s="86"/>
-      <c r="D150" s="86"/>
-      <c r="E150" s="87"/>
-      <c r="F150" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H150" s="88"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="85" t="s">
+      <c r="B161" s="87"/>
+      <c r="C161" s="87"/>
+      <c r="D161" s="87"/>
+      <c r="E161" s="88"/>
+      <c r="F161" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H161" s="89"/>
+    </row>
+    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="86"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="86"/>
-      <c r="E151" s="87"/>
-      <c r="F151" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H151" s="88"/>
-    </row>
-    <row r="152" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="85" t="s">
+      <c r="B162" s="87"/>
+      <c r="C162" s="87"/>
+      <c r="D162" s="87"/>
+      <c r="E162" s="88"/>
+      <c r="F162" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H162" s="89"/>
+    </row>
+    <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="B152" s="86"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="86"/>
-      <c r="E152" s="87"/>
-      <c r="F152" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H152" s="88"/>
-    </row>
-    <row r="153" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="85" t="s">
+      <c r="B163" s="87"/>
+      <c r="C163" s="87"/>
+      <c r="D163" s="87"/>
+      <c r="E163" s="88"/>
+      <c r="F163" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H163" s="89"/>
+    </row>
+    <row r="164" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164" s="87"/>
+      <c r="C164" s="87"/>
+      <c r="D164" s="87"/>
+      <c r="E164" s="88"/>
+      <c r="F164" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H164" s="89"/>
+    </row>
+    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="86"/>
-      <c r="C153" s="86"/>
-      <c r="D153" s="86"/>
-      <c r="E153" s="87"/>
-      <c r="F153" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H153" s="88"/>
-    </row>
-    <row r="154" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="85" t="s">
+      <c r="B165" s="87"/>
+      <c r="C165" s="87"/>
+      <c r="D165" s="87"/>
+      <c r="E165" s="88"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H165" s="89"/>
+    </row>
+    <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" s="87"/>
+      <c r="C166" s="87"/>
+      <c r="D166" s="87"/>
+      <c r="E166" s="88"/>
+      <c r="F166" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H166" s="89"/>
+    </row>
+    <row r="167" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="B154" s="86"/>
-      <c r="C154" s="86"/>
-      <c r="D154" s="86"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H154" s="88"/>
-    </row>
-    <row r="155" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="85" t="s">
+      <c r="B167" s="87"/>
+      <c r="C167" s="87"/>
+      <c r="D167" s="87"/>
+      <c r="E167" s="88"/>
+      <c r="F167" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H167" s="89"/>
+    </row>
+    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="B155" s="86"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="86"/>
-      <c r="E155" s="87"/>
-      <c r="F155" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H155" s="88"/>
-    </row>
-    <row r="156" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="85" t="s">
+      <c r="B168" s="87"/>
+      <c r="C168" s="87"/>
+      <c r="D168" s="87"/>
+      <c r="E168" s="88"/>
+      <c r="F168" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H168" s="89"/>
+    </row>
+    <row r="169" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="87"/>
+      <c r="C169" s="87"/>
+      <c r="D169" s="87"/>
+      <c r="E169" s="88"/>
+      <c r="F169" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H169" s="89"/>
+    </row>
+    <row r="170" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="B156" s="86"/>
-      <c r="C156" s="86"/>
-      <c r="D156" s="86"/>
-      <c r="E156" s="87"/>
-      <c r="F156" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H156" s="88"/>
-    </row>
-    <row r="157" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="85" t="s">
+      <c r="B170" s="87"/>
+      <c r="C170" s="87"/>
+      <c r="D170" s="87"/>
+      <c r="E170" s="88"/>
+      <c r="F170" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H170" s="89"/>
+    </row>
+    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B157" s="86"/>
-      <c r="C157" s="86"/>
-      <c r="D157" s="86"/>
-      <c r="E157" s="87"/>
-      <c r="F157" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H157" s="88"/>
-    </row>
-    <row r="158" spans="1:8" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="B158" s="86"/>
-      <c r="C158" s="86"/>
-      <c r="D158" s="86"/>
-      <c r="E158" s="87"/>
-      <c r="F158" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H158" s="88"/>
-    </row>
-    <row r="159" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="85" t="s">
+      <c r="B171" s="96"/>
+      <c r="C171" s="96"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="97"/>
+      <c r="F171" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H171" s="89"/>
+    </row>
+    <row r="172" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B159" s="86"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="86"/>
-      <c r="E159" s="87"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H159" s="88"/>
-    </row>
-    <row r="160" spans="1:8" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B160" s="86"/>
-      <c r="C160" s="86"/>
-      <c r="D160" s="86"/>
-      <c r="E160" s="87"/>
-      <c r="F160" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H160" s="88"/>
-    </row>
-    <row r="161" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="85" t="s">
+      <c r="B172" s="87"/>
+      <c r="C172" s="87"/>
+      <c r="D172" s="87"/>
+      <c r="E172" s="88"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H172" s="89"/>
+    </row>
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B161" s="86"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="86"/>
-      <c r="E161" s="87"/>
-      <c r="F161" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H161" s="88"/>
-    </row>
-    <row r="162" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="85" t="s">
+      <c r="B173" s="87"/>
+      <c r="C173" s="87"/>
+      <c r="D173" s="87"/>
+      <c r="E173" s="88"/>
+      <c r="F173" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B162" s="86"/>
-      <c r="C162" s="86"/>
-      <c r="D162" s="86"/>
-      <c r="E162" s="87"/>
-      <c r="F162" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H162" s="88"/>
-    </row>
-    <row r="163" spans="1:8" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B163" s="86"/>
-      <c r="C163" s="86"/>
-      <c r="D163" s="86"/>
-      <c r="E163" s="87"/>
-      <c r="F163" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H163" s="88"/>
-    </row>
-    <row r="164" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="85" t="s">
+      <c r="G173" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H173" s="89"/>
+    </row>
+    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="87"/>
+      <c r="C174" s="87"/>
+      <c r="D174" s="87"/>
+      <c r="E174" s="88"/>
+      <c r="F174" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G174" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H174" s="89"/>
+    </row>
+    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="87"/>
+      <c r="C175" s="87"/>
+      <c r="D175" s="87"/>
+      <c r="E175" s="88"/>
+      <c r="F175" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G175" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H175" s="89"/>
+    </row>
+    <row r="176" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="86"/>
-      <c r="C164" s="86"/>
-      <c r="D164" s="86"/>
-      <c r="E164" s="87"/>
-      <c r="F164" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H164" s="88"/>
-    </row>
-    <row r="165" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="94" t="s">
+      <c r="B176" s="87"/>
+      <c r="C176" s="87"/>
+      <c r="D176" s="87"/>
+      <c r="E176" s="88"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H176" s="89"/>
+    </row>
+    <row r="177" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B165" s="95"/>
-      <c r="C165" s="95"/>
-      <c r="D165" s="95"/>
-      <c r="E165" s="96"/>
-      <c r="F165" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H165" s="88"/>
-    </row>
-    <row r="166" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="85" t="s">
+      <c r="B177" s="87"/>
+      <c r="C177" s="87"/>
+      <c r="D177" s="87"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H177" s="89"/>
+    </row>
+    <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="B166" s="86"/>
-      <c r="C166" s="86"/>
-      <c r="D166" s="86"/>
-      <c r="E166" s="87"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H166" s="88"/>
-    </row>
-    <row r="167" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="85" t="s">
+      <c r="B178" s="91"/>
+      <c r="C178" s="91"/>
+      <c r="D178" s="91"/>
+      <c r="E178" s="91"/>
+      <c r="F178" s="91"/>
+      <c r="G178" s="91"/>
+      <c r="H178" s="92"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="56"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="56"/>
+      <c r="G179" s="56"/>
+      <c r="H179" s="56"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="46"/>
+      <c r="B180" s="46"/>
+      <c r="C180" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="86"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="86"/>
-      <c r="E167" s="87"/>
-      <c r="F167" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G167" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H167" s="88"/>
-    </row>
-    <row r="168" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="B168" s="86"/>
-      <c r="C168" s="86"/>
-      <c r="D168" s="86"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G168" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H168" s="88"/>
-    </row>
-    <row r="169" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B169" s="86"/>
-      <c r="C169" s="86"/>
-      <c r="D169" s="86"/>
-      <c r="E169" s="87"/>
-      <c r="F169" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G169" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H169" s="88"/>
-    </row>
-    <row r="170" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B170" s="86"/>
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
-      <c r="E170" s="87"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H170" s="88"/>
-    </row>
-    <row r="171" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B171" s="86"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="86"/>
-      <c r="E171" s="87"/>
-      <c r="F171" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H171" s="88"/>
-    </row>
-    <row r="172" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="B172" s="90"/>
-      <c r="C172" s="90"/>
-      <c r="D172" s="90"/>
-      <c r="E172" s="90"/>
-      <c r="F172" s="90"/>
-      <c r="G172" s="90"/>
-      <c r="H172" s="91"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="59"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="46"/>
-      <c r="B174" s="46"/>
-      <c r="C174" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="D174" s="92"/>
-      <c r="E174" s="92"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="92"/>
-      <c r="H174" s="92"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="46"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="93"/>
-      <c r="D175" s="93"/>
-      <c r="E175" s="93"/>
-      <c r="F175" s="93"/>
-      <c r="G175" s="93"/>
-      <c r="H175" s="93"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="70" t="s">
+      <c r="D180" s="93"/>
+      <c r="E180" s="93"/>
+      <c r="F180" s="93"/>
+      <c r="G180" s="93"/>
+      <c r="H180" s="93"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="46"/>
+      <c r="B181" s="46"/>
+      <c r="C181" s="94"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="94"/>
+      <c r="F181" s="94"/>
+      <c r="G181" s="94"/>
+      <c r="H181" s="94"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="71"/>
-      <c r="C176" s="81" t="str">
+      <c r="B182" s="72"/>
+      <c r="C182" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D176" s="82"/>
-      <c r="E176" s="82"/>
-      <c r="F176" s="83"/>
-      <c r="G176" s="83"/>
-      <c r="H176" s="84"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="70" t="s">
+      <c r="D182" s="83"/>
+      <c r="E182" s="83"/>
+      <c r="F182" s="84"/>
+      <c r="G182" s="84"/>
+      <c r="H182" s="85"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="71"/>
-      <c r="C177" s="81" t="str">
+      <c r="B183" s="72"/>
+      <c r="C183" s="82" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D177" s="82"/>
-      <c r="E177" s="82"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="84"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="70" t="s">
+      <c r="D183" s="83"/>
+      <c r="E183" s="83"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="85"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="72" t="str">
+      <c r="B184" s="72"/>
+      <c r="C184" s="73" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D178" s="73"/>
-      <c r="E178" s="73"/>
-      <c r="F178" s="74"/>
-      <c r="G178" s="74"/>
-      <c r="H178" s="75"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="70" t="s">
+      <c r="D184" s="74"/>
+      <c r="E184" s="74"/>
+      <c r="F184" s="75"/>
+      <c r="G184" s="75"/>
+      <c r="H184" s="76"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="76"/>
-      <c r="C179" s="77" t="str">
+      <c r="B185" s="77"/>
+      <c r="C185" s="78" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D179" s="78"/>
-      <c r="E179" s="78"/>
-      <c r="F179" s="79"/>
-      <c r="G179" s="79"/>
-      <c r="H179" s="80"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="64" t="s">
+      <c r="D185" s="79"/>
+      <c r="E185" s="79"/>
+      <c r="F185" s="80"/>
+      <c r="G185" s="80"/>
+      <c r="H185" s="81"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B187" s="66"/>
+      <c r="C187" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D187" s="67"/>
+      <c r="E187" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F187" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G187" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H187" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="B181" s="65"/>
-      <c r="C181" s="66" t="s">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D181" s="66"/>
-      <c r="E181" s="50" t="s">
+      <c r="B188" s="69"/>
+      <c r="C188" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="F181" s="50" t="s">
+      <c r="D188" s="70"/>
+      <c r="E188" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G181" s="50" t="s">
+      <c r="F188" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="H181" s="40" t="s">
+      <c r="G188" s="51" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="67" t="s">
+      <c r="H188" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B182" s="68"/>
-      <c r="C182" s="69" t="s">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="69"/>
-      <c r="E182" s="51" t="s">
+      <c r="B189" s="64"/>
+      <c r="C189" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="F182" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G182" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="H182" s="41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B183" s="63"/>
-      <c r="C183" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D183" s="63"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="34"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B184" s="63"/>
-      <c r="C184" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D184" s="63"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="B185" s="63"/>
-      <c r="C185" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D185" s="63"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B186" s="63"/>
-      <c r="C186" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D186" s="63"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B187" s="63"/>
-      <c r="C187" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D187" s="63"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B188" s="63"/>
-      <c r="C188" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D188" s="63"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B189" s="63"/>
-      <c r="C189" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D189" s="63"/>
+      <c r="D189" s="64"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
       <c r="H189" s="34"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="B190" s="63"/>
-      <c r="C190" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D190" s="63"/>
+      <c r="A190" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="64"/>
+      <c r="C190" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D190" s="64"/>
       <c r="E190" s="34"/>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
       <c r="H190" s="34"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B191" s="63"/>
-      <c r="C191" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D191" s="63"/>
+      <c r="A191" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D191" s="64"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
       <c r="H191" s="34"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B192" s="63"/>
-      <c r="C192" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D192" s="63"/>
+      <c r="A192" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192" s="64"/>
+      <c r="C192" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D192" s="64"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
       <c r="G192" s="34"/>
       <c r="H192" s="34"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B193" s="63"/>
-      <c r="C193" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D193" s="63"/>
+      <c r="A193" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B193" s="64"/>
+      <c r="C193" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D193" s="64"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
       <c r="H193" s="34"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B194" s="63"/>
-      <c r="C194" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D194" s="63"/>
+      <c r="A194" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="64"/>
+      <c r="C194" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D194" s="64"/>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
       <c r="H194" s="34"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="62"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="62"/>
-      <c r="D195" s="62"/>
+      <c r="A195" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B195" s="64"/>
+      <c r="C195" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D195" s="64"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
       <c r="H195" s="34"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="62"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="62"/>
-      <c r="D196" s="62"/>
+      <c r="A196" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196" s="64"/>
+      <c r="C196" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D196" s="64"/>
       <c r="E196" s="34"/>
       <c r="F196" s="34"/>
       <c r="G196" s="34"/>
       <c r="H196" s="34"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="62"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="62"/>
-      <c r="D197" s="62"/>
+      <c r="A197" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="64"/>
+      <c r="C197" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D197" s="64"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
       <c r="G197" s="34"/>
       <c r="H197" s="34"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="62"/>
-      <c r="B198" s="62"/>
-      <c r="C198" s="62"/>
-      <c r="D198" s="62"/>
+      <c r="A198" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B198" s="64"/>
+      <c r="C198" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D198" s="64"/>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
       <c r="G198" s="34"/>
       <c r="H198" s="34"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="62"/>
-      <c r="B199" s="62"/>
-      <c r="C199" s="62"/>
-      <c r="D199" s="62"/>
+      <c r="A199" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B199" s="64"/>
+      <c r="C199" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D199" s="64"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
       <c r="G199" s="34"/>
       <c r="H199" s="34"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="62"/>
-      <c r="B200" s="62"/>
-      <c r="C200" s="62"/>
-      <c r="D200" s="62"/>
+      <c r="A200" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B200" s="64"/>
+      <c r="C200" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D200" s="64"/>
       <c r="E200" s="34"/>
       <c r="F200" s="34"/>
       <c r="G200" s="34"/>
       <c r="H200" s="34"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="62"/>
-      <c r="B201" s="62"/>
-      <c r="C201" s="62"/>
-      <c r="D201" s="62"/>
+      <c r="A201" s="63"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="63"/>
+      <c r="D201" s="63"/>
       <c r="E201" s="34"/>
       <c r="F201" s="34"/>
       <c r="G201" s="34"/>
       <c r="H201" s="34"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="62"/>
-      <c r="B202" s="62"/>
-      <c r="C202" s="62"/>
-      <c r="D202" s="62"/>
+      <c r="A202" s="63"/>
+      <c r="B202" s="63"/>
+      <c r="C202" s="63"/>
+      <c r="D202" s="63"/>
       <c r="E202" s="34"/>
       <c r="F202" s="34"/>
       <c r="G202" s="34"/>
       <c r="H202" s="34"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="62"/>
-      <c r="B203" s="62"/>
-      <c r="C203" s="62"/>
-      <c r="D203" s="62"/>
+      <c r="A203" s="63"/>
+      <c r="B203" s="63"/>
+      <c r="C203" s="63"/>
+      <c r="D203" s="63"/>
       <c r="E203" s="34"/>
       <c r="F203" s="34"/>
       <c r="G203" s="34"/>
       <c r="H203" s="34"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="62"/>
-      <c r="B204" s="62"/>
-      <c r="C204" s="62"/>
-      <c r="D204" s="62"/>
+      <c r="A204" s="63"/>
+      <c r="B204" s="63"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
       <c r="G204" s="34"/>
       <c r="H204" s="34"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="62"/>
-      <c r="B205" s="62"/>
-      <c r="C205" s="62"/>
-      <c r="D205" s="62"/>
+      <c r="A205" s="63"/>
+      <c r="B205" s="63"/>
+      <c r="C205" s="63"/>
+      <c r="D205" s="63"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
       <c r="G205" s="34"/>
       <c r="H205" s="34"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="62"/>
-      <c r="B206" s="62"/>
-      <c r="C206" s="62"/>
-      <c r="D206" s="62"/>
+      <c r="A206" s="63"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="63"/>
+      <c r="D206" s="63"/>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
       <c r="G206" s="34"/>
       <c r="H206" s="34"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="62"/>
-      <c r="B207" s="62"/>
-      <c r="C207" s="62"/>
-      <c r="D207" s="62"/>
+      <c r="A207" s="63"/>
+      <c r="B207" s="63"/>
+      <c r="C207" s="63"/>
+      <c r="D207" s="63"/>
       <c r="E207" s="34"/>
       <c r="F207" s="34"/>
       <c r="G207" s="34"/>
       <c r="H207" s="34"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="62"/>
-      <c r="B208" s="62"/>
-      <c r="C208" s="62"/>
-      <c r="D208" s="62"/>
+      <c r="A208" s="63"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
       <c r="E208" s="34"/>
       <c r="F208" s="34"/>
       <c r="G208" s="34"/>
       <c r="H208" s="34"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="62"/>
-      <c r="B209" s="62"/>
-      <c r="C209" s="62"/>
-      <c r="D209" s="62"/>
+      <c r="A209" s="63"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
       <c r="G209" s="34"/>
       <c r="H209" s="34"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="62"/>
-      <c r="B210" s="62"/>
-      <c r="C210" s="62"/>
-      <c r="D210" s="62"/>
+      <c r="A210" s="63"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
       <c r="G210" s="34"/>
       <c r="H210" s="34"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="62"/>
-      <c r="B211" s="62"/>
-      <c r="C211" s="62"/>
-      <c r="D211" s="62"/>
+      <c r="A211" s="63"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="63"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
       <c r="G211" s="34"/>
       <c r="H211" s="34"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="62"/>
-      <c r="B212" s="62"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="62"/>
+      <c r="A212" s="63"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
       <c r="E212" s="34"/>
       <c r="F212" s="34"/>
       <c r="G212" s="34"/>
       <c r="H212" s="34"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="62"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="62"/>
-      <c r="D213" s="62"/>
+      <c r="A213" s="63"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="63"/>
       <c r="E213" s="34"/>
       <c r="F213" s="34"/>
       <c r="G213" s="34"/>
       <c r="H213" s="34"/>
     </row>
-    <row r="216" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H216" s="2"/>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="63"/>
+      <c r="B214" s="63"/>
+      <c r="C214" s="63"/>
+      <c r="D214" s="63"/>
+      <c r="E214" s="34"/>
+      <c r="F214" s="34"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="34"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215" s="63"/>
+      <c r="B215" s="63"/>
+      <c r="C215" s="63"/>
+      <c r="D215" s="63"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="34"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="63"/>
+      <c r="B216" s="63"/>
+      <c r="C216" s="63"/>
+      <c r="D216" s="63"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="167" t="s">
+      <c r="A217" s="63"/>
+      <c r="B217" s="63"/>
+      <c r="C217" s="63"/>
+      <c r="D217" s="63"/>
+      <c r="E217" s="34"/>
+      <c r="F217" s="34"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="63"/>
+      <c r="B218" s="63"/>
+      <c r="C218" s="63"/>
+      <c r="D218" s="63"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="63"/>
+      <c r="B219" s="63"/>
+      <c r="C219" s="63"/>
+      <c r="D219" s="63"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
+    </row>
+    <row r="222" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="168"/>
-      <c r="C217" s="169" t="str">
+      <c r="B223" s="169"/>
+      <c r="C223" s="170" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D217" s="168"/>
-      <c r="E217" s="168"/>
-      <c r="F217" s="168"/>
-      <c r="G217" s="168"/>
-      <c r="H217" s="170"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="153" t="s">
+      <c r="D223" s="169"/>
+      <c r="E223" s="169"/>
+      <c r="F223" s="169"/>
+      <c r="G223" s="169"/>
+      <c r="H223" s="171"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="154"/>
-      <c r="C218" s="171" t="str">
+      <c r="B224" s="155"/>
+      <c r="C224" s="172" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D218" s="172"/>
-      <c r="E218" s="172"/>
-      <c r="F218" s="172"/>
-      <c r="G218" s="172"/>
-      <c r="H218" s="173"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="153" t="s">
+      <c r="D224" s="173"/>
+      <c r="E224" s="173"/>
+      <c r="F224" s="173"/>
+      <c r="G224" s="173"/>
+      <c r="H224" s="174"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="154"/>
-      <c r="C219" s="155" t="str">
+      <c r="B225" s="155"/>
+      <c r="C225" s="156" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D219" s="154"/>
-      <c r="E219" s="154"/>
-      <c r="F219" s="154"/>
-      <c r="G219" s="154"/>
-      <c r="H219" s="156"/>
-    </row>
-    <row r="220" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="157" t="s">
+      <c r="D225" s="155"/>
+      <c r="E225" s="155"/>
+      <c r="F225" s="155"/>
+      <c r="G225" s="155"/>
+      <c r="H225" s="157"/>
+    </row>
+    <row r="226" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B220" s="158"/>
-      <c r="C220" s="159" t="str">
+      <c r="B226" s="159"/>
+      <c r="C226" s="160" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D220" s="158"/>
-      <c r="E220" s="158"/>
-      <c r="F220" s="158"/>
-      <c r="G220" s="158"/>
-      <c r="H220" s="160"/>
-    </row>
-    <row r="221" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="161" t="s">
+      <c r="D226" s="159"/>
+      <c r="E226" s="159"/>
+      <c r="F226" s="159"/>
+      <c r="G226" s="159"/>
+      <c r="H226" s="161"/>
+    </row>
+    <row r="227" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="162"/>
-      <c r="C221" s="4">
+      <c r="B227" s="163"/>
+      <c r="C227" s="4">
         <f>$E$18</f>
         <v>2050</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="D227" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E227" s="4">
         <f>$F$18</f>
         <v>1500</v>
       </c>
-      <c r="F221" s="4" t="s">
+      <c r="F227" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G227" s="4">
         <f>$G$18</f>
         <v>555</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="H227" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="163"/>
-      <c r="B222" s="164"/>
-      <c r="C222" s="164"/>
-      <c r="D222" s="165"/>
-      <c r="E222" s="165"/>
-      <c r="F222" s="165"/>
-      <c r="G222" s="165"/>
-      <c r="H222" s="166"/>
-    </row>
-    <row r="223" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="6"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="8"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="9"/>
-      <c r="B224" s="174"/>
-      <c r="C224" s="174"/>
-      <c r="D224" s="174"/>
-      <c r="E224" s="174"/>
-      <c r="F224" s="174"/>
-      <c r="G224" s="174"/>
-      <c r="H224" s="11"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="9"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="11"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="9"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="11"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="9"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="11"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="9"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="11"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="11"/>
+    <row r="228" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="164"/>
+      <c r="B228" s="165"/>
+      <c r="C228" s="165"/>
+      <c r="D228" s="166"/>
+      <c r="E228" s="166"/>
+      <c r="F228" s="166"/>
+      <c r="G228" s="166"/>
+      <c r="H228" s="167"/>
+    </row>
+    <row r="229" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="6"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="8"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
+      <c r="B230" s="59"/>
+      <c r="C230" s="59"/>
+      <c r="D230" s="59"/>
+      <c r="E230" s="59"/>
+      <c r="F230" s="59"/>
+      <c r="G230" s="59"/>
       <c r="H230" s="11"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -5974,385 +5989,485 @@
       <c r="H231" s="11"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="12"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
-      <c r="H232" s="15"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="11"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="16"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
-      <c r="G233" s="13"/>
-      <c r="H233" s="15"/>
+      <c r="A233" s="9"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="11"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="16"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="13"/>
-      <c r="H234" s="15"/>
+      <c r="A234" s="9"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="11"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="16"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="13"/>
-      <c r="H235" s="15"/>
+      <c r="A235" s="9"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="11"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="16"/>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="13"/>
-      <c r="H236" s="15"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="11"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="16"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="13"/>
-      <c r="H237" s="15"/>
+      <c r="A237" s="9"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="11"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="16"/>
-      <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="14"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="13"/>
-      <c r="H238" s="15"/>
-    </row>
-    <row r="239" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="17"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="G239" s="18"/>
-      <c r="H239" s="20"/>
-    </row>
-    <row r="241" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242" s="167" t="s">
+      <c r="A238" s="9"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="11"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="9"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="11"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="12"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="15"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="16"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="15"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="16"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="15"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="16"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="15"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="16"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="15"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="16"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="13"/>
+      <c r="H245" s="15"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="16"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="13"/>
+      <c r="H246" s="15"/>
+    </row>
+    <row r="247" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="17"/>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="20"/>
+    </row>
+    <row r="249" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B242" s="168"/>
-      <c r="C242" s="169" t="str">
+      <c r="B250" s="169"/>
+      <c r="C250" s="170" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D242" s="168"/>
-      <c r="E242" s="168"/>
-      <c r="F242" s="168"/>
-      <c r="G242" s="168"/>
-      <c r="H242" s="170"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" s="153" t="s">
+      <c r="D250" s="169"/>
+      <c r="E250" s="169"/>
+      <c r="F250" s="169"/>
+      <c r="G250" s="169"/>
+      <c r="H250" s="171"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B243" s="154"/>
-      <c r="C243" s="171" t="str">
+      <c r="B251" s="155"/>
+      <c r="C251" s="172" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D243" s="172"/>
-      <c r="E243" s="172"/>
-      <c r="F243" s="172"/>
-      <c r="G243" s="172"/>
-      <c r="H243" s="173"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="153" t="s">
+      <c r="D251" s="173"/>
+      <c r="E251" s="173"/>
+      <c r="F251" s="173"/>
+      <c r="G251" s="173"/>
+      <c r="H251" s="174"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="154"/>
-      <c r="C244" s="155" t="str">
+      <c r="B252" s="155"/>
+      <c r="C252" s="156" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D244" s="154"/>
-      <c r="E244" s="154"/>
-      <c r="F244" s="154"/>
-      <c r="G244" s="154"/>
-      <c r="H244" s="156"/>
-    </row>
-    <row r="245" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="157" t="s">
+      <c r="D252" s="155"/>
+      <c r="E252" s="155"/>
+      <c r="F252" s="155"/>
+      <c r="G252" s="155"/>
+      <c r="H252" s="157"/>
+    </row>
+    <row r="253" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B245" s="158"/>
-      <c r="C245" s="159" t="str">
+      <c r="B253" s="159"/>
+      <c r="C253" s="160" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D245" s="158"/>
-      <c r="E245" s="158"/>
-      <c r="F245" s="158"/>
-      <c r="G245" s="158"/>
-      <c r="H245" s="160"/>
-    </row>
-    <row r="246" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="161" t="s">
+      <c r="D253" s="159"/>
+      <c r="E253" s="159"/>
+      <c r="F253" s="159"/>
+      <c r="G253" s="159"/>
+      <c r="H253" s="161"/>
+    </row>
+    <row r="254" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="162"/>
-      <c r="C246" s="4">
+      <c r="B254" s="163"/>
+      <c r="C254" s="4">
         <f>$E$18</f>
         <v>2050</v>
       </c>
-      <c r="D246" s="4" t="s">
+      <c r="D254" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E254" s="4">
         <f>$F$18</f>
         <v>1500</v>
       </c>
-      <c r="F246" s="4" t="s">
+      <c r="F254" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G246" s="4">
+      <c r="G254" s="4">
         <f>$G$18</f>
         <v>555</v>
       </c>
-      <c r="H246" s="5" t="s">
+      <c r="H254" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="163"/>
-      <c r="B247" s="164"/>
-      <c r="C247" s="164"/>
-      <c r="D247" s="165"/>
-      <c r="E247" s="165"/>
-      <c r="F247" s="165"/>
-      <c r="G247" s="165"/>
-      <c r="H247" s="166"/>
-    </row>
-    <row r="248" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="6"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="8"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="9"/>
-      <c r="B249" s="174"/>
-      <c r="C249" s="174"/>
-      <c r="D249" s="174"/>
-      <c r="E249" s="174"/>
-      <c r="F249" s="174"/>
-      <c r="G249" s="174"/>
-      <c r="H249" s="11"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="9"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="10"/>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="11"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="9"/>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="11"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="9"/>
-      <c r="B252" s="10"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="11"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="9"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="11"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="9"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="11"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="9"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="11"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="9"/>
-      <c r="B256" s="10"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="11"/>
+    <row r="255" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="164"/>
+      <c r="B255" s="165"/>
+      <c r="C255" s="165"/>
+      <c r="D255" s="166"/>
+      <c r="E255" s="166"/>
+      <c r="F255" s="166"/>
+      <c r="G255" s="166"/>
+      <c r="H255" s="167"/>
+    </row>
+    <row r="256" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="8"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="12"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="14"/>
-      <c r="E257" s="14"/>
-      <c r="F257" s="14"/>
-      <c r="G257" s="14"/>
-      <c r="H257" s="15"/>
+      <c r="A257" s="9"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="11"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="16"/>
-      <c r="B258" s="13"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="14"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="14"/>
-      <c r="G258" s="13"/>
-      <c r="H258" s="15"/>
+      <c r="A258" s="9"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="11"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="16"/>
-      <c r="B259" s="13"/>
-      <c r="C259" s="13"/>
-      <c r="D259" s="14"/>
-      <c r="E259" s="14"/>
-      <c r="F259" s="14"/>
-      <c r="G259" s="13"/>
-      <c r="H259" s="15"/>
+      <c r="A259" s="9"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="59"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="11"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="16"/>
-      <c r="B260" s="13"/>
-      <c r="C260" s="13"/>
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="14"/>
-      <c r="G260" s="13"/>
-      <c r="H260" s="15"/>
+      <c r="A260" s="9"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+      <c r="H260" s="11"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="16"/>
-      <c r="B261" s="13"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="14"/>
-      <c r="G261" s="13"/>
-      <c r="H261" s="15"/>
+      <c r="A261" s="9"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="11"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="16"/>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="14"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="14"/>
-      <c r="G262" s="13"/>
-      <c r="H262" s="15"/>
+      <c r="A262" s="9"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+      <c r="G262" s="10"/>
+      <c r="H262" s="11"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="16"/>
-      <c r="B263" s="13"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="14"/>
-      <c r="E263" s="14"/>
-      <c r="F263" s="14"/>
-      <c r="G263" s="13"/>
-      <c r="H263" s="15"/>
-    </row>
-    <row r="264" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="17"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="18"/>
-      <c r="H264" s="20"/>
+      <c r="A263" s="9"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="11"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="9"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="11"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="21"/>
-      <c r="B265" s="13"/>
-      <c r="C265" s="13"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="14"/>
-      <c r="G265" s="13"/>
-      <c r="H265" s="22"/>
+      <c r="A265" s="9"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="11"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="9"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="11"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="12"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="15"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="16"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="15"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="16"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="15"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="16"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="13"/>
+      <c r="H270" s="15"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="16"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="13"/>
+      <c r="H271" s="15"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="16"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="13"/>
+      <c r="H272" s="15"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="16"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="13"/>
+      <c r="H273" s="15"/>
+    </row>
+    <row r="274" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="17"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="18"/>
+      <c r="H274" s="20"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="21"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="318">
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:H219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="C220:H220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:H222"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:H217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:H218"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="C244:H244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:H245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A247:H247"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="C242:H242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="C243:H243"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:H228"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="C223:H223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:H252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:H253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:H255"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:H250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="C251:H251"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:B6"/>
@@ -6385,154 +6500,140 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B23:H42"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="C50:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A73:E73"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="C95:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:H97"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="A87:E87"/>
-    <mergeCell ref="C89:H90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
     <mergeCell ref="A103:E103"/>
     <mergeCell ref="A104:E104"/>
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
     <mergeCell ref="A115:E115"/>
     <mergeCell ref="A116:E116"/>
     <mergeCell ref="A117:E117"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A119:E119"/>
     <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:H139"/>
     <mergeCell ref="A127:E127"/>
     <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="C131:H132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:E144"/>
     <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
     <mergeCell ref="A149:E149"/>
     <mergeCell ref="G149:H149"/>
     <mergeCell ref="A150:E150"/>
     <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
     <mergeCell ref="A145:E145"/>
     <mergeCell ref="G145:H145"/>
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
     <mergeCell ref="A147:E147"/>
     <mergeCell ref="G147:H147"/>
     <mergeCell ref="A155:E155"/>
@@ -6541,12 +6642,14 @@
     <mergeCell ref="G156:H156"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
     <mergeCell ref="A153:E153"/>
     <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
     <mergeCell ref="A161:E161"/>
     <mergeCell ref="G161:H161"/>
     <mergeCell ref="A162:E162"/>
@@ -6571,26 +6674,28 @@
     <mergeCell ref="G165:H165"/>
     <mergeCell ref="A166:E166"/>
     <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:H177"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
     <mergeCell ref="A170:E170"/>
     <mergeCell ref="G170:H170"/>
     <mergeCell ref="A171:E171"/>
     <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A172:H172"/>
-    <mergeCell ref="C174:H175"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
     <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C182:H182"/>
     <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="A178:H178"/>
+    <mergeCell ref="C180:H181"/>
     <mergeCell ref="A187:B187"/>
     <mergeCell ref="C187:D187"/>
     <mergeCell ref="A188:B188"/>
@@ -6598,11 +6703,9 @@
     <mergeCell ref="A189:B189"/>
     <mergeCell ref="C189:D189"/>
     <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C184:H184"/>
     <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C185:H185"/>
     <mergeCell ref="A193:B193"/>
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="A194:B194"/>
@@ -6651,16 +6754,28 @@
     <mergeCell ref="C209:D209"/>
     <mergeCell ref="A210:B210"/>
     <mergeCell ref="C210:D210"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
-    <brk id="49" max="7" man="1"/>
-    <brk id="88" max="7" man="1"/>
-    <brk id="130" max="7" man="1"/>
-    <brk id="173" max="7" man="1"/>
-    <brk id="214" max="7" man="1"/>
+    <brk id="55" max="7" man="1"/>
+    <brk id="94" max="7" man="1"/>
+    <brk id="136" max="7" man="1"/>
+    <brk id="179" max="7" man="1"/>
+    <brk id="220" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
